--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,55 +112,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小娜迦镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小山崩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼大招传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙毒性攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师脉冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师护罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师歇心光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标枪穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血面具吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽魂权杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/闪烁匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/剑圣风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/剑圣治疗棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/剑圣的暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/剑圣无敌斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小黑冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小黑沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小黑光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小黑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚空的位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚空的时间膨胀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚空时间锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚空大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>混沌之箭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/混沌之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>混沌裂隙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/混沌裂隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>混沌一击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/混沌一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>混沌之军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/混沌之军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>熊战士震撼大地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/熊战士震撼大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>熊战士的攻击速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/熊战士的攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>熊战士的怒意狂击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/熊战士的怒意狂击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>熊战士激怒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/熊战士激怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>血魔血怒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/血魔血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>血魔祭司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/血魔祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>血魔焦渴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/血魔焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>血魔割裂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小娜迦镜像</t>
+    <t>ui://GameUI/血魔割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小娜迦镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,15 +352,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/小娜迦的网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小娜迦的激流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/小娜迦的激流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小娜迦之歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小小山崩</t>
+    <t>ui://GameUI/小娜迦之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小小山崩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,11 +380,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/小小投掷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小小拔树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小小长大</t>
+    <t>ui://GameUI/小小拔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小小长大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,23 +400,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/风行的束缚击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>风行强力击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/风行强力击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>风行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>风行大招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/风行大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>帕克幻象发球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帕克传送</t>
+    <t>ui://GameUI/帕克幻象发球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/帕克传送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,27 +444,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/帕克沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>帕克相位转移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/帕克相位转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>帕克大招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/帕克大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>影魔影牙1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影魔影牙2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔大招</t>
+    <t>ui://GameUI/影魔影牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/影魔影牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/影魔影牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/影魔大招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,19 +488,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/幽鬼之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>幽鬼荒芜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/幽鬼荒芜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>幽鬼折射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/幽鬼折射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>幽鬼大招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幽鬼大招传送</t>
+    <t>ui://GameUI/幽鬼大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽鬼大招传送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -268,19 +524,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/火枪榴弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>火枪爆头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/火枪爆头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>火枪瞄准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/火枪瞄准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>火枪的暗杀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斧王吼</t>
+    <t>ui://GameUI/火枪的暗杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/斧王吼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -288,31 +560,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/斧王战斗饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>斧王反击螺旋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/斧王反击螺旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>斧王淘汰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/斧王淘汰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>月骑月光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/月骑月光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>月骑月刃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/月骑月刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>月骑祝福</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/月骑祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>月骑大招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毒龙毒性攻击</t>
+    <t>ui://GameUI/月骑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/毒龙毒性攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,7 +620,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毒龙皮肤</t>
+    <t>ui://GameUI/毒龙剧毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/毒龙皮肤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,79 +632,335 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/毒龙大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>蓝猫残影</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/蓝猫残影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>蓝猫的拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/蓝猫的拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>蓝猫超负荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/蓝猫超负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>蓝猫的大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瘟疫法师脉冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师护罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师歇心光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标枪穿刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血面具吸血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/力量手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/敏捷便鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/智力斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/圆环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/幽魂权杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/闪烁匕首</t>
+    <t>ui://GameUI/蓝猫的大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冥盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥数鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纷争面纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿托斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小晕锤(近战)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小晕锤(远程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚灵刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金箍棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大晕锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战头巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刃甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑皇杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分身斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血晶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小电锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃主动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂缴械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/相位鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/玄冥盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/勇气勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/奥术鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/韧鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/梅肯斯姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/洞察烟斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/原力法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/纷争面纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/达贡之神力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/EUL的神圣法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/阿托斯之棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/紫怨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/刷新球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/邪恶镰刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/水晶剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/碎颅锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/碎颅锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚灵之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/金箍棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/代达罗斯之殇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/深渊之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/挑战头巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/刃甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/黑皇杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/西瓦的守护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幻影斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/血精石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/恐鳌之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/疯狂面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/漩涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/净魂之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/净魂之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/黯灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/天堂之戟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/斯嘉蒂之眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/撒旦之邪力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,12 +1004,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -754,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,7 +1396,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -847,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -859,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -871,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -882,6 +1443,9 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -891,6 +1455,9 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -900,6 +1467,9 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -909,6 +1479,9 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -918,6 +1491,9 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -926,6 +1502,9 @@
       <c r="B15" t="s">
         <v>21</v>
       </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
@@ -934,6 +1513,9 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
@@ -942,6 +1524,9 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -949,7 +1534,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -958,7 +1546,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -967,7 +1558,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -976,7 +1570,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -985,7 +1582,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -994,7 +1594,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -1003,7 +1606,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -1012,7 +1618,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -1021,7 +1630,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -1030,7 +1642,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -1039,7 +1654,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -1048,7 +1666,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
       </c>
       <c r="D29" s="1"/>
     </row>
@@ -1057,7 +1678,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1066,7 +1690,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -1075,7 +1702,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -1084,7 +1714,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -1093,7 +1726,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
       </c>
       <c r="D34" s="1"/>
     </row>
@@ -1102,7 +1738,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -1111,7 +1750,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
       </c>
       <c r="D36" s="1"/>
     </row>
@@ -1120,7 +1762,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
       </c>
       <c r="D37" s="1"/>
     </row>
@@ -1129,7 +1774,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
       </c>
       <c r="D38" s="1"/>
     </row>
@@ -1138,7 +1786,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
       </c>
       <c r="D39" s="1"/>
     </row>
@@ -1147,7 +1798,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -1156,7 +1810,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
       </c>
       <c r="D41" s="1"/>
     </row>
@@ -1165,7 +1822,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
       </c>
       <c r="D42" s="1"/>
     </row>
@@ -1174,7 +1834,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
       </c>
       <c r="D43" s="1"/>
     </row>
@@ -1183,7 +1846,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>107</v>
       </c>
       <c r="D44" s="1"/>
     </row>
@@ -1192,7 +1858,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
       </c>
       <c r="D45" s="1"/>
     </row>
@@ -1201,7 +1870,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
       </c>
       <c r="D46" s="1"/>
     </row>
@@ -1210,7 +1882,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>112</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
       </c>
       <c r="D47" s="1"/>
     </row>
@@ -1219,264 +1894,348 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="C71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="C73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -1484,7 +2243,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -1492,7 +2251,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -1500,10 +2259,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -1511,10 +2270,417 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="C84" t="s">
+      <c r="B91" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
         <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>179</v>
+      </c>
+      <c r="C101" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>183</v>
+      </c>
+      <c r="C105" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>187</v>
+      </c>
+      <c r="C109" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C110" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>189</v>
+      </c>
+      <c r="C111" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C112" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>191</v>
+      </c>
+      <c r="C113" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C114" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>193</v>
+      </c>
+      <c r="C115" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>194</v>
+      </c>
+      <c r="C116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>195</v>
+      </c>
+      <c r="C117" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>196</v>
+      </c>
+      <c r="C118" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>198</v>
+      </c>
+      <c r="C120" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,14 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PA标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,63 +224,907 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ui://GameUI/虚空的时间膨胀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚空时间锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚空大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/混沌之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌裂隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/混沌裂隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/混沌一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/混沌之军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士震撼大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/熊战士震撼大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的怒意狂击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/熊战士的怒意狂击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士激怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/血魔血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/血魔祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/血魔焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/血魔割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小娜迦镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小娜迦的网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的激流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小娜迦的激流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小娜迦之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小投掷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小小投掷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小拔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小小拔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小小长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行的束缚击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/风行的束缚击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行强力击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/风行强力击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/风行大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克幻象发球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/帕克幻象发球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/帕克传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/帕克沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克相位转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/帕克相位转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/帕克大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/影魔影牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/影魔影牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/影魔影牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/影魔大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽鬼之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼荒芜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽鬼荒芜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼折射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽鬼折射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽鬼大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽鬼大招传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪榴弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/火枪榴弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪爆头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/火枪爆头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪瞄准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/火枪瞄准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪的暗杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/火枪的暗杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/斧王吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王战斗饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/斧王战斗饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王反击螺旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/斧王反击螺旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王淘汰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/斧王淘汰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑月光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/月骑月光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑月刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/月骑月刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/月骑祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/月骑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/毒龙毒性攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙剧毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/毒龙剧毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/毒龙皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/毒龙大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫残影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/蓝猫残影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫的拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/蓝猫的拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫超负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/蓝猫超负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫的大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/蓝猫的大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冥盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥数鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纷争面纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿托斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小晕锤(近战)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小晕锤(远程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚灵刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金箍棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大晕锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战头巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刃甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑皇杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分身斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血晶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小电锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃主动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂缴械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/相位鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/玄冥盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/勇气勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/奥术鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/韧鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/梅肯斯姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/洞察烟斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/原力法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/纷争面纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/达贡之神力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/EUL的神圣法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/阿托斯之棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/紫怨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/刷新球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/邪恶镰刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/水晶剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/碎颅锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/碎颅锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚灵之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/金箍棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/代达罗斯之殇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/深渊之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/挑战头巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/刃甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/黑皇杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/西瓦的守护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幻影斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/血精石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/恐鳌之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/疯狂面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/漩涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/净魂之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/净魂之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/黯灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/天堂之戟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/斯嘉蒂之眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/撒旦之邪力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+伤害类型:魔法
+无视技能免疫:否
+能否被驱散:否
+对周围的敌方单位造成伤害,并使自己魔法免疫。
+驱散类型:弱
+期间可以使用物品,但是不能攻击
+作用范围:2.5
+伤害:90/115/140/160
+持续时间:5
+CD:42/34/26/18
+耗蓝:120/110/100/90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+召唤一个治疗守卫,按周围友军最大生命值的一定比例治疗他们,持续25秒。
+治疗守卫不能移动
+CD:60
+耗蓝:140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+攻击时有一定概率触发致命一击
+触发概率:20%/25%/30%/35%
+伤害:180%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+影响:地方单位
+伤害类型:物理
+无视技能免疫:是
+挥剑斩向敌人,随后以更短的攻击频率斩击附近的敌人,斩击期间无敌
+攻击击速度提升:100
+作用范围:4.25
+攻击力加成:30/40/50
+持续时间:3/3.25/3.5
+CD:140
+耗蓝:200/275/350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:自动释放
+影响:地方单位
+无视技能免疫:否
+箭上附近冰冻攻击效果,减缓敌人的移动速度,持续1.5秒
+减缓速度:16%/32%/48%/64%
+持续时间:1.5
+耗蓝:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+能否驱散:是
+无视技能免疫:否
+击退并沉默敌人
+施法距离:9
+沉默时间:3/4/5/6
+CD:16/15/14/13
+耗蓝:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+影响:友方
+提升友方远程英雄的攻击速度。
+攻击速度:50/80/110/140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ui://GameUI/虚空的位移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ui://GameUI/虚空的时间膨胀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/虚空时间锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/虚空大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/混沌之箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌裂隙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/混沌裂隙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌一击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/混沌一击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/混沌之军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士震撼大地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/熊战士震撼大地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士的攻击速度</t>
+    <t>技能:点目标
+冲到目标位置,并取消最近2秒受到的伤害。
+冲的过程无敌。
+施法距离:6.75
+CD:24/18/12/6
+耗蓝:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+能否驱散:是
+敌人的技能CD将会被锁定,并降低敌人的攻击速度和移动速度。
+作用范围:7.75
+持续时间:6/8/10/12
+移动速度降低:14%/20%/24%/28%
+攻击速度速度降低:14%/20%/24%/28%
+CD:40/34/28/22
+耗蓝:75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:是
+能否驱散:仅强驱散
+攻击有一定概率对敌人造成2倍伤害。并锁定敌人。
+锁定持续时间:0.75
+触发概率:10%/14%/18%/22%
+额外伤害:23/30/35/40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+无视技能免疫:是
+能否驱散:无法驱散
+创造一个圆形遮罩,将里面的所有单位定住,自己在里面来去自如,且能穿透敌人
+左右范围:4.25
+持续时间:4/4.5/5
+CD:140/130/120
+耗蓝:150/225/300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+影响:敌方单位
+伤害类型:魔法
+无视技能免疫:否
+能否驱散:仅强驱散
+对目标投掷一只神秘的箭,造成眩晕和伤害
+伤害:135/165/195/225
+眩晕时间:1.75/2.15/2.55/2.95
+CD:13/12/11/10
+耗蓝:110/120/130/140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+伤害类型:物理
+是否无视技能免疫:是
+攻击有概率无视敌人的护甲,如果4米内有敌方英雄,则无效。
+触发概率:20%/30%/40%
+额外伤害:120/130/140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+影响:敌方单位
+无视技能免疫:否
+能否驱散:是
+将自己及幻象和目标单位传送到自己和目标连线上的固定位置,并且降低目标的移动速度和攻击速度。
+施法范围:5.5/6/6.5/7
+牵引距离:2.5/3/3.5/4
+移动速度减缓:10%/20%/30%/40%
+攻击速度降低:30/50/70/90
+持续时间:3
+CD:20/15/10/5
+耗蓝:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+能否驱散:是
+攻击造成致命一击,并吸血。
+致命一击伤害:140%/160%/180%/200%
+吸血:25%/40%/55%/70%
+CD:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+召唤出3个幻象
+驱散类型:弱驱散
+幻象持续时间:30
+幻象继承攻击力:50%/75%/100%
+幻象承受伤害:260%
+CD:145
+耗蓝:125/200/275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+伤害类型:魔法
+是否无视技能免疫:否
+能否驱散:是
+对附近的所有单位造成伤害并减速
+作用范围:3.85
+移动速度减缓:25%/35%/45%/55%
+伤害:50/100/150/200
+CD:5
+耗蓝:75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -296,15 +1132,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊战士的怒意狂击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/熊战士的怒意狂击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士激怒</t>
+    <t>技能:无目标
+能否驱散:是
+提升接下来几次攻击的攻击速度。
+攻击次数:4/5/6/7
+攻击速度提升:400
+持续时间:20
+CD:16/14/12/10
+耗蓝:75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+伤害类型:物理
+无视技能免疫:是
+能否驱散:无法驱散
+对同一目标连续攻击将造成更多的伤害。
+持续时间:8/12/16/20
+每次攻击叠加伤害:7/14/21/28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,63 +1157,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血魔血怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/血魔血怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔祭司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/血魔祭司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/血魔焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔割裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/血魔割裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/小娜迦镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/小娜迦的网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的激流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/小娜迦的激流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦之歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/小娜迦之歌</t>
+    <t>技能:无目标
+无视技能免疫:是
+能否驱散:无法驱散
+进入狂怒状态,承受伤害减少80%。
+驱散类型:强驱散
+怒意狂击伤害倍数:1.4/1.7/2
+持续时间:4
+CD:50/40/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+无视技能免疫:否
+能否驱散:是
+使单位在持续时间内,造成的伤害和承受的伤害都被加深。击杀单位能恢复血量。
+持续时间:9/10/11/12
+伤害数值提高:10%/15%/20%/25%
+击杀后回复百分比:16%/19%/22%/25%
+CD:9/8/7/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+伤害类型:纯粹
+无视节能免疫:否
+能否驱散:是
+对3秒后区域内的敌人造成伤害并减速
+作用范围:6
+沉默持续时间:3/4/5/6
+伤害:125/175/225/275
+CD:18/16/14/12
+耗蓝:70/80/90/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视节能免疫:否
+敌方英雄生命值低于75%，自己将获得移动速度加成和攻击速度加成
+作用范围:12
+移动速度加成上限:12%/24%/36%/48%
+最大攻击速度:30/45/60/75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+影响:敌方单位
+伤害类型:纯粹
+无视节能免疫:是
+能否驱散:否
+目标每移动1米的距离都将受到伤害
+持续时间:12
+移动伤害:30%/45%/60%
+施法距离:8
+CD:60
+耗蓝:200/225/250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+召唤多个幻象
+持续时间:26
+幻象攻击力:25%/30%/35%/40%
+幻象承受伤害:350%
+幻象数量:3
+CD:45/40/35/30
+耗蓝:70/85/100/115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+无视技能免疫:否
+能否驱散:是
+网住敌人,使目标无法移动
+持续时间:2/3/4/5
+CD:14
+耗蓝:70/80/90/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+伤害类型:魔法
+无视技能免疫:否
+能否驱散:是
+攻击时有几率对周围的单位造成伤害,并降低护甲
+概率:17%
+护甲降低:2/4/6/8
+伤害:30/40/50/60
+持续时间:4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -376,591 +1252,488 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小小投掷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/小小投掷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小拔树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/小小拔树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/小小长大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行的束缚击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/风行的束缚击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行强力击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/风行强力击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/风行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/风行大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克幻象发球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/帕克幻象发球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/帕克传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/帕克沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克相位转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/帕克相位转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/帕克大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/影魔影牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/影魔影牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/影魔影牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/影魔大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/幽鬼之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼荒芜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/幽鬼荒芜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼折射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/幽鬼折射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/幽鬼大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/幽鬼大招传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪榴弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/火枪榴弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪爆头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/火枪爆头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪瞄准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/火枪瞄准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪的暗杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/火枪的暗杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/斧王吼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王战斗饥渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/斧王战斗饥渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王反击螺旋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/斧王反击螺旋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王淘汰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/斧王淘汰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑月光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/月骑月光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑月刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/月骑月刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑祝福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/月骑祝福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/月骑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/毒龙毒性攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙剧毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/毒龙剧毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/毒龙皮肤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/毒龙大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫残影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/蓝猫残影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫的拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/蓝猫的拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫超负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/蓝猫超负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫的大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/蓝猫的大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相位鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄冥盾牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇气勋章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥数鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战鼓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅肯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笛子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推推</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纷争面纱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿托斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫苑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小晕锤(近战)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小晕锤(远程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚灵刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金箍棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大炮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大晕锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战头巾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刃甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑皇杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分身斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血晶石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小电锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净魂之刃被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净魂之刃主动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天堂缴械</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒旦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/相位鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/玄冥盾牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/勇气勋章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/奥术鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/韧鼓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/梅肯斯姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/洞察烟斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/原力法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/纷争面纱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/达贡之神力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/EUL的神圣法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/阿托斯之棍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/紫怨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/刷新球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/邪恶镰刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/水晶剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/碎颅锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/碎颅锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/虚灵之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/金箍棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/代达罗斯之殇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/深渊之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/挑战头巾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/刃甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/黑皇杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/西瓦的守护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/幻影斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/血精石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/恐鳌之心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/疯狂面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/漩涡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/净魂之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/净魂之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/黯灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/天堂之戟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/斯嘉蒂之眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/撒旦之邪力</t>
+    <t>技能:无目标
+无视技能免疫:否
+能否驱散:无法驱散
+使周围的敌人无法攻击,也不会受到伤害
+作用范围:10/12/14
+持续时间:7
+CD:120/100/80
+耗蓝:150/175/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+伤害类型:魔法
+无视技能免疫:否
+能否驱散:仅强驱散
+对范围内的地方单位造成短间隔的眩晕和伤害,对投掷的单位造成3倍伤害
+作用范围:3.25/3.5/3.75/4
+持续时间:1.8
+眩晕时间:0.2
+伤害:90/160/230/300
+CD:26/22/18/14
+耗蓝:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+伤害类型:魔法
+无视技能免疫:是
+抓起2.75范围内的最近的单位,丢向目标,对落地点周围的单位造成伤害,被投掷的单位将受到额外30%的伤害
+作用范围:2.75
+施法距离:13
+伤害:90/160/230/300
+CD:11
+耗蓝:90/100/110/120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+伤害类型:物理
+无视技能免疫:是
+激活范围攻击状态
+攻击次数:5
+额外伤害:10%/20%/30%/40%
+攻击距离:3.5
+溅射伤害:30%/40%/50%/60%
+CD:25/20/15/10
+耗蓝:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+激活长大状态
+护甲加成:10/18/26
+攻击力加成:30/45/60
+攻击速度降低:20/35/50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+无视技能免疫:否
+能否驱散:仅强驱散
+将目标束缚在正对其后方的单位上,如果后方没有单位则眩晕时间减少至0.75
+束缚时间:2/2.6/3.2/3.8
+CD:16/14/12/10
+耗蓝:70/85/100/115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+无视技能免疫:否
+伤害类型:魔法
+射出一只箭,对路径上的单位造成伤害,没造成一次伤害,伤害递减20%
+伤害:150/250/350/450
+射程:26
+CD:12/11/10/9
+耗蓝:90/100/110/120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+能否被驱散:是
+进入风行状态,同时降低周围敌人的移动速度
+移动速度提升:60%
+闪避几率:100%
+敌人减速:15%/20%/25%/30%
+敌人减速范围:3.25
+持续时间:3/4/5/6
+CD:15/14/13/12
+耗蓝:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+无视技能免疫:是
+能否被驱散:无法驱散
+攻击技能目标时攻击速度提升450,但是会降低伤害。持续20秒
+攻击力降低:50%/40%/30%
+CD:70/50/30
+耗蓝:75/100/125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+无视技能免疫:否
+伤害类型:魔法
+向直线方向射出一个魔法球,对经过路径上的敌人造成伤害,魔法球飞行过程中,可以通过传送技能传送到目标点。
+最大距离:19.5
+伤害:70/140/210/280
+CD:13/12/11/10
+耗蓝:80/100/120/140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:否
+伤害类型:魔法
+能否驱散:是
+对周围的单位造成伤害并沉默
+作用范围:4
+持续时间:2/2.5/3/3.5
+伤害:100/160/220/280
+CD:16/15/14/13
+耗蓝:100/110/120/130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+转移到另一个空间,从而免疫伤害
+持续时间:0.75/1.5/2.25/3.25
+CD:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+转移到发球位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+无视技能免疫:否
+伤害类型:魔法
+能否驱散:无法驱散
+对范围内的敌人造成0.5秒的眩晕,如果单位移动出范围,将再次受到伤害和眩晕
+范围:6
+持续时间:6
+再次眩晕时间:1.8/2.4/3
+再次伤害:300/400/500
+CD:70/65/60
+耗蓝:100/150/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:否
+伤害类型:魔法
+对范围内的敌人造成伤害,可叠加伤害
+基础伤害:90/160/230/300
+是否距离:7
+连中额外伤害:50/60/70/80
+叠加持续时间:8
+CD:10
+耗蓝:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:否
+伤害类型:魔法
+对范围内的敌人造成伤害,可叠加伤害
+攻击力加成:24/40/56/72
+基础伤害:90/160/230/300
+是否距离:4.5
+连中额外伤害:50/60/70/80
+叠加持续时间:8
+CD:10
+耗蓝:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:否
+伤害类型:魔法
+对范围内的敌人造成伤害,可叠加伤害
+降低敌人护甲:4,5,6,7
+基础伤害:90/160/230/300
+是否距离:2
+连中额外伤害:50/60/70/80
+叠加持续时间:8
+CD:10
+耗蓝:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:否
+伤害类型:魔法
+能否驱散:是
+发射出18到波纹,每道波纹都可以对敌人造成伤害。
+施法延迟:1.67
+移动速度降低:25%
+攻击力降低:50%
+伤害:80/120/160
+CD:120/110/100
+耗蓝:150/175/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+无视技能免疫:是
+伤害类型:魔法
+能否驱散:无法驱散
+投出一把匕首,留下暗影路径,对敌人造成伤害并减速,自己可在路径上穿越地形并加速
+伤害:90/140/190/240
+持续时间:7
+CD:16
+耗蓝:100/120/140/160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:是
+伤害类型:纯粹
+当敌人落单时,将造成额外伤害
+额外伤害:20/30/40/50
+落单范围:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:是
+反弹受到的伤害给周围的敌人,距离越近伤害越高。
+伤害反弹:7%/12%/17%/22%
+范围:3-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:是
+在敌人身后创造一个幻象
+幻象持续时间:5/6/7
+继承攻击力:40%/60%/80%
+承受伤害:200%
+CD:180/150/120
+耗蓝:150/200/250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:幻象目标
+无视技能免疫:是
+与幻象互换位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+无视技能免疫:否
+伤害类型:魔法
+能否驱散:无法驱散
+消耗1点能量射出一发弹雨,对范围内的单位造成伤害和减速。
+移动速度减缓:15%/20%/25%/30%
+作用范围:4.5
+伤害:15/35/50/75
+持续时间:10
+耗蓝:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:否
+伤害类型:物理
+攻击时造成额外伤害和短暂的移动停滞
+概率:40%
+击退距离:10
+伤害:30/60/90/120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+能否驱散:是
+增加射程,开启后下一次增加的射程加倍
+射程增加:1/2/3/4
+CD:9/8/7/6
+耗蓝:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+伤害类型:魔法
+能否驱散:无法驱散
+短暂延迟后,对敌人造成巨大伤害
+施法距离:20
+作用范围:4.5
+伤害:320/485/650
+CD:20/15/10
+耗蓝:175/225/275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:是
+能否驱散:无法驱散
+嘲讽周围的地方单位,强迫他们攻击自己。自己活得护甲加成
+作用范围:3
+护甲提升:30
+持续时间:2/2.4/2.8/3.2
+CD:16/14/12/10
+耗蓝:80/90/100/110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+无视技能免疫:否
+能否驱散:是
+伤害类型:魔法
+激怒一个敌方单位,使其持续受到伤害和减速,直到他杀死一个单位或者持续时间结束，自己获得移动速度加成
+持续时间:12
+移动速度减缓:12%
+移动速度加成:12%
+每秒伤害:16/24/32/40
+CD:20/15/10/5
+耗蓝:50/60/70/80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:是
+伤害类型:纯粹
+受到攻击时,对周围的敌方单位造成伤害
+伤害:60/100/140/180
+作用范围:2.75
+概率:20%
+CD:0.45/0.4/0.35/0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+无视技能免疫:是
+伤害类型:魔法
+直接秒杀血量低的单位,血量如果过高,则造成一定伤害,成功斩杀后将重置CD,并提供友方移动速度
+秒杀血量:250/325/400
+伤害:150/250/300
+斩杀后移动速度加成:30%
+斩杀后攻击速度加成:30
+持续时间:6
+斩杀后加速范围:9
+CD:75/60/55
+耗蓝:60/120/180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+无视技能免疫:否
+能否驱散:仅强驱散
+伤害类型:魔法
+召唤一道月光打击敌人,造成伤害并眩晕
+眩晕时间:0.8
+伤害:75/150/225/300
+CD:6
+耗蓝:90/100/110/120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:是
+使自己的攻击可以弹射,每次弹射后都将降低伤害
+弹射范围:5
+弹射次数:1/2/3/6
+弹射伤害衰减:35%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+提升友方单位的主属性
+范围:12
+主属性加成:6/12/18/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:否
+能否驱散:无法驱散
+伤害类型:魔法
+召唤多道月光打击敌人,造成伤害并眩晕
+月光数量:6/9/12
+作用范围:6.75
+CD:140
+耗蓝:150/200/250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:自动释放
+无视技能免疫:否
+能否驱散:是
+伤害类型:魔法
+攻击可以降低目标的攻击速度和移动速度,并根据目标损失的血量造成伤害
+持续时间:3
+伤害掉血百分比:0.25/0.5/0.75/1
+移动速度降低:10%/20%/30%/40%
+攻击速度降低:10/20/30/40
+CD:0.1
+耗蓝:40/35/30/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+无视技能免疫:否
+伤害类型:魔法
+对目标范围内的敌人造成伤害,降低魔抗并禁用被动
+每秒伤害:30/45/60/75
+作用范围:3.8
+魔抗降低:10%/15%/20%/25%
+CD:6
+耗蓝:70/80/90/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:否
+伤害类型:魔法
+能否驱散:是
+任何伤害到我的敌人都将受到伤害和降低攻击速度,还能提升我自己的魔法抗性
+持续时间:4
+攻击速度降低:8/16/24/32
+魔抗增加:10%/15%/20%/25%
+每秒伤害:8/16/24/32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+无视技能免疫:是
+伤害类型:魔法
+能否驱散:无法驱散
+降低目标敌方单位的移动和攻击速度,并造成持续伤害,移动速度会在持续时间内逐渐恢复
+持续时间:5
+每秒造成伤害:60/100/145
+移动速度减缓:40%/60%/80%
+攻击速度降低:40/60/80
+CD:50/40/30
+耗蓝:125/175/250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:否
+伤害类型:魔法
+制造一个可以爆炸的能量球,如果有人接近就会爆炸
+作用范围:2.6
+伤害:120/175/230/285
+CD:3.5
+耗蓝:70/80/90/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+无视技能免疫:否
+能否驱散:仅强驱散
+将一个敌人拖向自己的方向
+持续时间:1.4/1.8/2.2/2.6
+CD:16
+耗蓝:60/70/80/90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:否
+能否驱散:是
+伤害类型:魔法
+施法时会产生电荷,下次攻击时被释放,对敌人造成伤害并减速
+作用范围:3
+移动速度降低:80%
+攻击速度降低:80
+持续时间:0.6
+耗蓝:40/60/80/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+无视技能免疫:否
+伤害类型:魔法
+飞向目标点,对路径上的敌人造成伤害,飞行过程中自身无敌
+作用范围:2
+伤害:60/80/100
+耗蓝:30+10%最大魔法值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1317,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1347,35 +2120,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1384,858 +2153,1028 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="162" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="162" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="162" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="162" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="162" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="162" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="162" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="162" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="162" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -2243,7 +3182,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -2251,7 +3190,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -2259,10 +3198,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" t="s">
         <v>42</v>
-      </c>
-      <c r="C83" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -2270,10 +3209,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" t="s">
         <v>43</v>
-      </c>
-      <c r="C84" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -2281,10 +3220,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -2292,10 +3231,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -2303,10 +3242,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -2314,10 +3253,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -2325,10 +3264,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -2336,10 +3275,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -2347,10 +3286,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -2358,10 +3297,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -2369,10 +3308,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -2380,10 +3319,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -2391,10 +3330,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -2402,10 +3341,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -2413,10 +3352,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -2424,10 +3363,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -2435,10 +3374,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -2446,10 +3385,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -2457,10 +3396,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C101" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -2468,10 +3407,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C102" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -2479,10 +3418,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C103" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
@@ -2490,10 +3429,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C104" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -2501,10 +3440,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C105" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
@@ -2512,10 +3451,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C106" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
@@ -2523,10 +3462,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C107" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
@@ -2534,10 +3473,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -2545,10 +3484,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C109" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -2556,10 +3495,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C110" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
@@ -2567,10 +3506,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C111" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -2578,10 +3517,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C112" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -2589,10 +3528,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C113" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -2600,10 +3539,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C114" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -2611,10 +3550,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -2622,10 +3561,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C116" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
@@ -2633,10 +3572,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C117" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -2644,10 +3583,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C118" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -2655,10 +3594,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C119" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -2666,10 +3605,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C120" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -2677,10 +3616,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C121" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -13,22 +13,50 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//技能自动瞄准类型 1:普通 2:位移技能(朝目标方向最大距离) 3:进攻技能(瞄准敌人)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IconPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/力量手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/敏捷便鞋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1736,12 +1764,15 @@
 耗蓝:30+10%最大魔法值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>AutoAimType</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1755,6 +1786,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2087,1543 +2133,1901 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="39.125" customWidth="1"/>
-    <col min="4" max="4" width="115.75" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="162" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="162" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="162" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="162" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="162" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="162" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="162" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="162" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="162" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" t="s">
         <v>40</v>
       </c>
-      <c r="C83" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" t="s">
         <v>41</v>
       </c>
-      <c r="C84" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C85" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C89" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+        <v>202</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C96" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C98" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C99" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C100" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C101" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C102" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C105" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C106" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C107" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C108" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C110" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C112" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C113" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C114" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C115" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C116" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C117" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C118" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C119" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C120" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C121" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -1742,6 +1742,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>技能:点目标
+无视技能免疫:否
+伤害类型:魔法
+飞向目标点,对路径上的敌人造成伤害,飞行过程中自身无敌
+作用范围:2
+伤害:60/80/100
+耗蓝:30+10%最大魔法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoAimType</t>
+  </si>
+  <si>
     <t>技能:被动
 无视技能免疫:否
 能否驱散:是
@@ -1750,22 +1763,8 @@
 作用范围:3
 移动速度降低:80%
 攻击速度降低:80
-持续时间:0.6
-耗蓝:40/60/80/100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:点目标
-无视技能免疫:否
-伤害类型:魔法
-飞向目标点,对路径上的敌人造成伤害,飞行过程中自身无敌
-作用范围:2
-伤害:60/80/100
-耗蓝:30+10%最大魔法值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoAimType</t>
+持续时间:0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2136,15 +2135,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -2161,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2212,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="405" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2229,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="405" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2280,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2365,7 +2364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2382,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="270" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="378" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2467,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="270" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2484,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="270" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2535,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="270" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2569,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2586,7 +2585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="243" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="270" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2671,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="270" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="391.5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2722,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2739,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2841,7 +2840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2858,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2892,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="391.5" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2909,7 +2908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="324" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="351" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2994,7 +2993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3011,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="270" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3045,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3062,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3079,7 +3078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3198,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3283,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="324" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3300,7 +3299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="243" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3379,13 +3378,13 @@
         <v>152</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>154</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E75">
         <v>3</v>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="302">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,98 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑圣风暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣治疗棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣的暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣无敌斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑冰箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空的位移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空的时间膨胀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空时间锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小山崩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小长大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼大招传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王吼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙毒性攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙皮肤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瘟疫法师脉冲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,18 +172,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>混沌之箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/混沌之箭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>混沌裂隙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/混沌裂隙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,66 +188,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>混沌之军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/混沌之军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊战士震撼大地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/熊战士震撼大地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊战士的攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士的怒意狂击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/熊战士的怒意狂击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊战士激怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔血怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/血魔血怒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血魔祭司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/血魔祭司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血魔焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/血魔焦渴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血魔割裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/血魔割裂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,42 +220,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小娜迦的网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/小娜迦的网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小娜迦的激流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/小娜迦的激流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小娜迦之歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/小娜迦之歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小小投掷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/小小投掷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小小拔树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/小小拔树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,18 +244,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风行的束缚击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/风行的束缚击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风行强力击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/风行强力击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,18 +260,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风行大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/风行大招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帕克幻象发球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/帕克幻象发球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,34 +272,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帕克沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/帕克沉默</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帕克相位转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/帕克相位转移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帕克大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/帕克大招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影魔影牙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/影魔影牙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,26 +308,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幽鬼荒芜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/幽鬼荒芜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幽鬼折射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/幽鬼折射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幽鬼大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/幽鬼大招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,34 +324,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火枪榴弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/火枪榴弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火枪爆头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/火枪爆头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火枪瞄准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/火枪瞄准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火枪的暗杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/火枪的暗杀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,58 +344,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斧王战斗饥渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/斧王战斗饥渴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斧王反击螺旋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/斧王反击螺旋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斧王淘汰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/斧王淘汰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月骑月光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/月骑月光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月骑月刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/月骑月刃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月骑祝福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/月骑祝福</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月骑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/月骑大招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毒龙剧毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/毒龙剧毒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,39 +384,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毒龙大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/毒龙大招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝猫残影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/蓝猫残影</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝猫的拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/蓝猫的拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝猫超负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/蓝猫超负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫的大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1764,6 +1496,266 @@
 移动速度降低:80%
 攻击速度降低:80
 持续时间:0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑刃风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗守卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜冻之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射手天赋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间漫游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间膨胀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间结界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实相裂隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震撼大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超强力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒意狂击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血祭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诱捕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海妖之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山崩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻象发球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新月之痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦境缠绕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影牙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影牙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影牙3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挽歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒芜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼影重重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂战士之吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击螺旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘汰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月蚀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒性攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝮蛇突袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子涡流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超负荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2135,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2160,7 +2152,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2211,1157 +2203,1157 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="405" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="405" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="270" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="378" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="270" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="283.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>252</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="270" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="270" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="C25" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>256</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="243" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="216" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="270" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="270" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="391.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="C34" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="283.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="297" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="297" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="391.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="324" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>275</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="E47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="351" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="E48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="297" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="E51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="270" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="E56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="216" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>285</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="297" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>293</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>291</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="283.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>294</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>295</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>295</v>
+        <v>228</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="324" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>296</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="E69">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>298</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="283.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="243" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3372,30 +3364,30 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -3406,7 +3398,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3417,7 +3409,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3428,7 +3420,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3439,7 +3431,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3450,7 +3442,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3461,7 +3453,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3472,7 +3464,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3483,10 +3475,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3497,10 +3489,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -3511,10 +3503,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3525,10 +3517,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3539,10 +3531,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3553,10 +3545,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3567,10 +3559,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3581,10 +3573,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3595,10 +3587,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3609,10 +3601,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3623,10 +3615,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -3637,10 +3629,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3651,10 +3643,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3665,10 +3657,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3679,10 +3671,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3693,10 +3685,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3707,10 +3699,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3721,10 +3713,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3735,10 +3727,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3749,10 +3741,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3763,10 +3755,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3777,10 +3769,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3791,10 +3783,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3805,10 +3797,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3819,10 +3811,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3833,10 +3825,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -3847,10 +3839,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3861,10 +3853,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3875,10 +3867,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3889,10 +3881,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3903,10 +3895,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -3917,10 +3909,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -3931,10 +3923,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -3945,10 +3937,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -3959,10 +3951,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -3973,10 +3965,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -3987,10 +3979,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -4001,10 +3993,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -4015,10 +4007,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="E121">
         <v>1</v>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="303">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1756,6 +1756,10 @@
   </si>
   <si>
     <t>超负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中射击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2127,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2803,7 +2807,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>302</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="305">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1760,6 +1760,14 @@
   </si>
   <si>
     <t>集中射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/回城卷轴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2129,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4020,6 +4028,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C122" t="s">
+        <v>304</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="307">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1768,6 +1768,25 @@
   </si>
   <si>
     <t>ui://GameUI/回城卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大旋风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+伤害类型:魔法
+无视技能免疫:否
+能否被驱散:否
+对周围的敌方单位造成伤害,并使自己魔法免疫。
+驱散类型:弱
+期间可以使用物品,但是不能攻击
+作用范围:6
+伤害:200/300/400/500
+持续时间:5
+CD:60
+耗蓝:12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2137,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4042,6 +4061,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="123" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>305</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="309">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1787,6 +1787,24 @@
 持续时间:5
 CD:60
 耗蓝:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大挽歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:否
+伤害类型:魔法
+能否驱散:是
+发射出18到波纹,每道波纹都可以对敌人造成伤害。
+施法延迟:1.67
+移动速度降低:25%
+攻击力降低:50%
+伤害:1000/1500/2000/2500
+CD:120
+耗蓝:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2156,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4078,6 +4096,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="124" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>307</v>
+      </c>
+      <c r="C124" t="s">
+        <v>61</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A1C458-54F2-4FE0-BC1C-8B47061F2374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -715,14 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:点目标
-召唤一个治疗守卫,按周围友军最大生命值的一定比例治疗他们,持续25秒。
-治疗守卫不能移动
-CD:60
-耗蓝:140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:被动
 攻击时有一定概率触发致命一击
 触发概率:20%/25%/30%/35%
@@ -1807,11 +1800,20 @@
 耗蓝:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>技能:点目标
+召唤一个治疗守卫,按周围友军最大生命值的一定比例治疗他们,持续25秒。
+治疗守卫不能移动
+治疗量:2%/3%/4%/5%
+CD:60
+耗蓝:140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1888,7 +1890,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1963,6 +1965,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1998,6 +2017,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2173,11 +2209,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2201,7 +2237,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2257,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2269,18 +2305,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2291,13 +2327,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2308,13 +2344,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2325,13 +2361,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2342,13 +2378,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2359,13 +2395,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2376,13 +2412,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2393,13 +2429,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2410,13 +2446,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2427,13 +2463,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2444,13 +2480,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2461,13 +2497,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2478,13 +2514,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2501,7 +2537,7 @@
         <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2512,13 +2548,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2529,13 +2565,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2546,13 +2582,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2563,13 +2599,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2580,13 +2616,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2597,13 +2633,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2614,13 +2650,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2631,13 +2667,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2648,13 +2684,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2665,13 +2701,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2682,13 +2718,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2699,13 +2735,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2716,13 +2752,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2733,13 +2769,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2750,13 +2786,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2767,13 +2803,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2784,13 +2820,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2801,13 +2837,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2818,13 +2854,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -2841,7 +2877,7 @@
         <v>51</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2852,13 +2888,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2869,13 +2905,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -2886,13 +2922,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C43" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2903,13 +2939,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C44" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2920,13 +2956,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C45" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2937,13 +2973,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2954,13 +2990,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2971,13 +3007,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C48" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2988,13 +3024,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3005,13 +3041,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3028,7 +3064,7 @@
         <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3039,13 +3075,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3056,13 +3092,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3073,13 +3109,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3090,13 +3126,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3107,13 +3143,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -3124,13 +3160,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3141,13 +3177,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3158,13 +3194,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3175,13 +3211,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3192,13 +3228,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3209,13 +3245,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3226,13 +3262,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3243,13 +3279,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3260,13 +3296,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3277,13 +3313,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3294,13 +3330,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3311,13 +3347,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3328,13 +3364,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -3345,13 +3381,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3362,13 +3398,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3379,13 +3415,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3396,13 +3432,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3413,13 +3449,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3430,13 +3466,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4070,10 +4106,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C122" t="s">
         <v>303</v>
-      </c>
-      <c r="C122" t="s">
-        <v>304</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4084,13 +4120,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4101,13 +4137,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C124" t="s">
         <v>61</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E124">
         <v>1</v>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A1C458-54F2-4FE0-BC1C-8B47061F2374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1467,16 +1466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:点目标
-无视技能免疫:否
-伤害类型:魔法
-飞向目标点,对路径上的敌人造成伤害,飞行过程中自身无敌
-作用范围:2
-伤害:60/80/100
-耗蓝:30+10%最大魔法值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AutoAimType</t>
   </si>
   <si>
@@ -1809,11 +1798,23 @@
 耗蓝:140</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>技能:点目标
+无视技能免疫:否
+伤害类型:魔法
+飞向目标点,对路径上的敌人造成伤害,飞行过程中自身无敌
+作用范围:2
+施法范围:6/8/10
+飞行速度:6/10/14
+伤害:60/80/100
+耗蓝:30+10%最大魔法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1890,7 +1891,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1965,23 +1966,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2017,23 +2001,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2209,11 +2176,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2237,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2293,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2310,13 +2277,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2327,7 +2294,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -2344,7 +2311,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -2361,7 +2328,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -2378,7 +2345,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -2395,7 +2362,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -2412,7 +2379,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -2429,7 +2396,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
         <v>168</v>
@@ -2446,7 +2413,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -2463,7 +2430,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2480,7 +2447,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2497,7 +2464,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -2514,7 +2481,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -2548,7 +2515,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -2565,7 +2532,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -2582,7 +2549,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" t="s">
         <v>179</v>
@@ -2599,7 +2566,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -2616,7 +2583,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
         <v>182</v>
@@ -2633,7 +2600,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -2650,7 +2617,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
@@ -2667,7 +2634,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -2684,7 +2651,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
@@ -2701,7 +2668,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
@@ -2718,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
@@ -2735,7 +2702,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
@@ -2752,7 +2719,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -2769,7 +2736,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" t="s">
         <v>191</v>
@@ -2786,7 +2753,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
@@ -2803,7 +2770,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
@@ -2820,7 +2787,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
@@ -2837,7 +2804,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
@@ -2854,7 +2821,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
@@ -2888,7 +2855,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
@@ -2905,7 +2872,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C42" t="s">
         <v>53</v>
@@ -2922,7 +2889,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C43" t="s">
         <v>54</v>
@@ -2939,7 +2906,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C44" t="s">
         <v>55</v>
@@ -2956,7 +2923,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C45" t="s">
         <v>56</v>
@@ -2973,7 +2940,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
@@ -2990,7 +2957,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
@@ -3007,7 +2974,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C48" t="s">
         <v>59</v>
@@ -3024,7 +2991,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
@@ -3041,7 +3008,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
@@ -3075,7 +3042,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
@@ -3092,7 +3059,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
@@ -3109,7 +3076,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
@@ -3126,7 +3093,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
@@ -3143,7 +3110,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -3160,7 +3127,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
@@ -3177,7 +3144,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
@@ -3194,7 +3161,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
@@ -3211,7 +3178,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
@@ -3228,7 +3195,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
@@ -3245,7 +3212,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
@@ -3262,7 +3229,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
@@ -3279,7 +3246,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
@@ -3296,7 +3263,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
@@ -3313,7 +3280,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
@@ -3330,7 +3297,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
@@ -3347,7 +3314,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
@@ -3364,7 +3331,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
@@ -3381,7 +3348,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
@@ -3398,7 +3365,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
@@ -3415,7 +3382,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
@@ -3432,7 +3399,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
@@ -3449,30 +3416,30 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4106,10 +4073,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C122" t="s">
         <v>302</v>
-      </c>
-      <c r="C122" t="s">
-        <v>303</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4120,13 +4087,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4137,13 +4104,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C124" t="s">
         <v>61</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E124">
         <v>1</v>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -1062,16 +1062,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:单位目标
-无视技能免疫:否
-能否驱散:仅强驱散
-将目标束缚在正对其后方的单位上,如果后方没有单位则眩晕时间减少至0.75
-束缚时间:2/2.6/3.2/3.8
-CD:16/14/12/10
-耗蓝:70/85/100/115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:点目标
 无视技能免疫:否
 伤害类型:魔法
@@ -1808,6 +1798,16 @@
 飞行速度:6/10/14
 伤害:60/80/100
 耗蓝:30+10%最大魔法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+无视技能免疫:否
+能否驱散:仅强驱散
+将目标束缚在正对其后方的单位上,如果后方没有单位则眩晕时间减少至1.8/2.4/3.0/3.6
+束缚时间:2/2.6/3.2/3.8
+CD:16/14/12/10
+耗蓝:70/85/100/115</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2179,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2204,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2260,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2277,13 +2277,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2294,7 +2294,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -2311,7 +2311,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -2328,7 +2328,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -2345,7 +2345,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -2362,7 +2362,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -2379,7 +2379,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -2396,7 +2396,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
         <v>168</v>
@@ -2413,7 +2413,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -2430,7 +2430,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2447,7 +2447,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2464,7 +2464,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -2481,7 +2481,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -2515,7 +2515,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -2532,7 +2532,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -2549,7 +2549,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s">
         <v>179</v>
@@ -2566,7 +2566,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -2583,7 +2583,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25" t="s">
         <v>182</v>
@@ -2600,7 +2600,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -2617,7 +2617,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
@@ -2634,7 +2634,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -2651,7 +2651,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
@@ -2668,7 +2668,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
@@ -2685,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
@@ -2702,7 +2702,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
@@ -2719,7 +2719,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -2736,7 +2736,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" t="s">
         <v>191</v>
@@ -2753,7 +2753,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
@@ -2770,7 +2770,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
@@ -2787,7 +2787,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
@@ -2804,13 +2804,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2821,13 +2821,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -2844,7 +2844,7 @@
         <v>51</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2855,13 +2855,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2872,13 +2872,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C42" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -2889,13 +2889,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C43" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2906,13 +2906,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C44" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2923,13 +2923,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C45" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2940,13 +2940,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2957,13 +2957,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2974,13 +2974,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C48" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2991,13 +2991,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3008,13 +3008,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3042,13 +3042,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3059,13 +3059,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3076,13 +3076,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3093,13 +3093,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3110,13 +3110,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -3127,13 +3127,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3144,13 +3144,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3161,13 +3161,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3178,13 +3178,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3195,13 +3195,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3212,13 +3212,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3229,13 +3229,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3246,13 +3246,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3263,13 +3263,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3280,13 +3280,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3297,13 +3297,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3314,13 +3314,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3331,13 +3331,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -3348,13 +3348,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3365,13 +3365,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3382,13 +3382,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3399,13 +3399,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3416,13 +3416,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3433,13 +3433,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4073,10 +4073,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C122" t="s">
         <v>301</v>
-      </c>
-      <c r="C122" t="s">
-        <v>302</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4087,13 +4087,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4104,13 +4104,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C124" t="s">
         <v>61</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E124">
         <v>1</v>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -953,20 +953,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:单位目标
-影响:敌方单位
-伤害类型:纯粹
-无视节能免疫:是
-能否驱散:否
-目标每移动1米的距离都将受到伤害
-持续时间:12
-移动伤害:30%/45%/60%
-施法距离:8
-CD:60
-耗蓝:200/225/250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:无目标
 召唤多个幻象
 持续时间:26
@@ -1227,17 +1213,6 @@
 反弹受到的伤害给周围的敌人,距离越近伤害越高。
 伤害反弹:7%/12%/17%/22%
 范围:3-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:无目标
-无视技能免疫:是
-在敌人身后创造一个幻象
-幻象持续时间:5/6/7
-继承攻击力:40%/60%/80%
-承受伤害:200%
-CD:180/150/120
-耗蓝:150/200/250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1808,6 +1783,32 @@
 束缚时间:2/2.6/3.2/3.8
 CD:16/14/12/10
 耗蓝:70/85/100/115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+影响:敌方单位
+伤害类型:纯粹
+无视节能免疫:是
+能否驱散:否
+目标每移动1米的距离都将受到伤害
+持续时间:12
+移动伤害:45%/60%/75%
+施法距离:8
+CD:60
+耗蓝:200/225/250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:是
+在敌人身后创造一个幻象
+幻象持续时间:5/6/7
+继承攻击力:60%/80%/100%
+移动速度加成:200%
+承受伤害:200%
+CD:180/150/120
+耗蓝:150/200/250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2179,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2204,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2260,7 +2261,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2277,13 +2278,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2294,7 +2295,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -2311,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -2328,7 +2329,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -2345,7 +2346,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -2362,7 +2363,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -2379,7 +2380,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -2396,7 +2397,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
         <v>168</v>
@@ -2413,7 +2414,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -2430,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2447,7 +2448,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2464,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -2481,7 +2482,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -2515,7 +2516,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -2532,7 +2533,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -2549,7 +2550,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C23" t="s">
         <v>179</v>
@@ -2566,7 +2567,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -2583,7 +2584,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C25" t="s">
         <v>182</v>
@@ -2600,7 +2601,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -2617,7 +2618,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
@@ -2634,7 +2635,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -2651,13 +2652,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2668,13 +2669,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2685,13 +2686,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2702,13 +2703,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2719,13 +2720,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2736,13 +2737,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2753,13 +2754,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2770,13 +2771,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2787,13 +2788,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2804,13 +2805,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2821,13 +2822,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -2844,7 +2845,7 @@
         <v>51</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2855,13 +2856,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2872,13 +2873,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C42" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -2889,13 +2890,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C43" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2906,13 +2907,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C44" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2923,13 +2924,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C45" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2940,13 +2941,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2957,13 +2958,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2974,13 +2975,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C48" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2991,13 +2992,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3008,13 +3009,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3031,7 +3032,7 @@
         <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3042,13 +3043,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3059,30 +3060,30 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3093,13 +3094,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3110,13 +3111,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -3127,13 +3128,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3144,13 +3145,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3161,13 +3162,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3178,13 +3179,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3195,13 +3196,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3212,13 +3213,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3229,13 +3230,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3246,13 +3247,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3263,13 +3264,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3280,13 +3281,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3297,13 +3298,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3314,13 +3315,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3331,13 +3332,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -3348,13 +3349,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3365,13 +3366,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3382,13 +3383,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3399,13 +3400,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3416,13 +3417,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3433,13 +3434,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4073,10 +4074,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C122" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4087,13 +4088,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4104,13 +4105,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C124" t="s">
         <v>61</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -4119,6 +4120,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="310">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -722,20 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:单位目标
-影响:地方单位
-伤害类型:物理
-无视技能免疫:是
-挥剑斩向敌人,随后以更短的攻击频率斩击附近的敌人,斩击期间无敌
-攻击击速度提升:100
-作用范围:4.25
-攻击力加成:30/40/50
-持续时间:3/3.25/3.5
-CD:140
-耗蓝:200/275/350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:自动释放
 影响:地方单位
 无视技能免疫:否
@@ -754,13 +740,6 @@
 沉默时间:3/4/5/6
 CD:16/15/14/13
 耗蓝:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:无目标
-影响:友方
-提升友方远程英雄的攻击速度。
-攻击速度:50/80/110/140</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -895,16 +874,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:被动
-伤害类型:物理
-无视技能免疫:是
-能否驱散:无法驱散
-对同一目标连续攻击将造成更多的伤害。
-持续时间:8/12/16/20
-每次攻击叠加伤害:7/14/21/28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/熊战士激怒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1446,10 +1415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑刃风暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>治疗守卫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1691,18 +1656,6 @@
   </si>
   <si>
     <t>蝮蛇突袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>残影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子涡流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超负荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1809,6 +1762,58 @@
 承受伤害:200%
 CD:180/150/120
 耗蓝:150/200/250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑刃风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+伤害类型:物理
+无视技能免疫:是
+能否驱散:无法驱散
+对同一目标连续攻击将造成更多的伤害。
+最大叠加层数:30
+持续时间:8/12/16/20
+每次攻击叠加伤害:7/14/21/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+影响:地方单位
+伤害类型:物理
+无视技能免疫:是
+挥剑斩向敌人,随后以更短的攻击频率斩击附近的敌人,斩击期间无敌
+斩击频率倍数:1.7
+作用范围:4.25
+攻击力加成:30/40/50
+持续时间:3/3.25/3.5
+CD:140
+耗蓝:200/275/350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子影子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+影响:友方
+提升友方远程英雄的攻击速度。
+攻击速度:30/45/60/75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2180,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2205,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2261,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2278,13 +2283,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2295,7 +2300,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -2312,13 +2317,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>304</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2329,13 +2334,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2346,13 +2351,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2363,13 +2368,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2380,13 +2385,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2397,13 +2402,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2414,13 +2419,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2431,13 +2436,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2448,13 +2453,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2465,13 +2470,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2482,13 +2487,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2505,7 +2510,7 @@
         <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2516,13 +2521,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2533,13 +2538,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2550,30 +2555,30 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>181</v>
+        <v>303</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2584,13 +2589,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2601,13 +2606,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2618,13 +2623,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2635,13 +2640,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2652,13 +2657,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2669,13 +2674,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2686,13 +2691,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2703,13 +2708,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2720,13 +2725,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2737,13 +2742,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2754,13 +2759,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2771,13 +2776,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2788,13 +2793,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2805,13 +2810,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2822,13 +2827,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -2845,7 +2850,7 @@
         <v>51</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2856,13 +2861,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2873,13 +2878,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -2890,13 +2895,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C43" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2907,13 +2912,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C44" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2924,13 +2929,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C45" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2941,13 +2946,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2958,13 +2963,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2975,13 +2980,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C48" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2992,13 +2997,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3009,13 +3014,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3032,7 +3037,7 @@
         <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3043,13 +3048,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3060,13 +3065,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3077,13 +3082,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3094,13 +3099,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3111,13 +3116,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -3128,13 +3133,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3145,13 +3150,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3162,13 +3167,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3179,13 +3184,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3196,13 +3201,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3213,13 +3218,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3230,13 +3235,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3247,13 +3252,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3264,13 +3269,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3281,13 +3286,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3298,13 +3303,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3315,13 +3320,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3332,13 +3337,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -3349,13 +3354,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3366,13 +3371,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3383,13 +3388,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3400,13 +3405,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3417,13 +3422,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3434,13 +3439,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4074,10 +4079,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C122" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4088,13 +4093,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4105,13 +4110,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C124" t="s">
         <v>61</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E124">
         <v>1</v>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>混沌一击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/混沌一击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1131,20 +1127,6 @@
     <t>技能:无目标
 无视技能免疫:否
 伤害类型:魔法
-对范围内的敌人造成伤害,可叠加伤害
-降低敌人护甲:4,5,6,7
-基础伤害:90/160/230/300
-是否距离:2
-连中额外伤害:50/60/70/80
-叠加持续时间:8
-CD:10
-耗蓝:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:无目标
-无视技能免疫:否
-伤害类型:魔法
 能否驱散:是
 发射出18到波纹,每道波纹都可以对敌人造成伤害。
 施法延迟:1.67
@@ -1459,10 +1441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>混乱之箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实相裂隙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1483,10 +1461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>激怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血怒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1612,10 +1586,6 @@
   </si>
   <si>
     <t>狂战士之吼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗饥渴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1802,10 +1772,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电吸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电子影子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1814,6 +1780,40 @@
 影响:友方
 提升友方远程英雄的攻击速度。
 攻击速度:30/45/60/75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:否
+伤害类型:魔法
+对范围内的敌人造成伤害,可叠加伤害
+降低敌人护甲:4,5,6,7
+基础伤害:90/160/230/300
+施法距离:2
+连中额外伤害:50/60/70/80
+叠加持续时间:8
+CD:10
+耗蓝:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电吸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2185,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2210,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2266,13 +2266,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2283,13 +2283,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2317,13 +2317,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2334,13 +2334,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2351,13 +2351,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2368,13 +2368,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2385,13 +2385,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2402,13 +2402,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2419,13 +2419,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2436,13 +2436,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2453,13 +2453,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2487,13 +2487,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2504,13 +2504,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2521,13 +2521,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2538,13 +2538,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2555,13 +2555,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2572,13 +2572,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2589,13 +2589,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2606,13 +2606,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2623,13 +2623,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2640,13 +2640,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2657,13 +2657,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2691,13 +2691,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2708,13 +2708,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2725,13 +2725,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2742,13 +2742,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2759,13 +2759,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2776,13 +2776,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2793,13 +2793,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2810,13 +2810,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2827,13 +2827,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -2844,13 +2844,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
         <v>50</v>
       </c>
-      <c r="C40" t="s">
-        <v>51</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2861,13 +2861,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2878,13 +2878,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -2895,13 +2895,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2912,13 +2912,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2929,13 +2929,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2946,13 +2946,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2963,13 +2963,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2980,13 +2980,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2997,13 +2997,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3014,13 +3014,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3031,13 +3031,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
         <v>62</v>
       </c>
-      <c r="C51" t="s">
-        <v>63</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3048,13 +3048,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3065,13 +3065,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3082,13 +3082,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3099,13 +3099,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3116,13 +3116,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -3133,13 +3133,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3150,13 +3150,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3167,13 +3167,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3184,13 +3184,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3201,13 +3201,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3218,13 +3218,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3235,13 +3235,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3252,13 +3252,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3269,13 +3269,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3286,13 +3286,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3303,13 +3303,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3320,13 +3320,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3337,13 +3337,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -3354,13 +3354,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3371,13 +3371,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3388,13 +3388,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3405,13 +3405,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3422,13 +3422,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3439,13 +3439,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -3561,10 +3561,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3575,10 +3575,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3589,10 +3589,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3603,10 +3603,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3617,10 +3617,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3631,10 +3631,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3645,10 +3645,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3659,10 +3659,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3673,10 +3673,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -3687,10 +3687,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3701,10 +3701,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3715,10 +3715,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3729,10 +3729,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3743,10 +3743,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3757,10 +3757,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3771,10 +3771,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3799,10 +3799,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3813,10 +3813,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3827,10 +3827,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3841,10 +3841,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3855,10 +3855,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3869,10 +3869,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3883,10 +3883,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -3897,10 +3897,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3911,10 +3911,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3925,10 +3925,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3939,10 +3939,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3953,10 +3953,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -3967,10 +3967,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -3981,10 +3981,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -3995,10 +3995,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -4009,10 +4009,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -4023,10 +4023,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -4037,10 +4037,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -4051,10 +4051,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -4065,10 +4065,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -4079,10 +4079,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C122" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4093,13 +4093,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4110,13 +4110,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C124" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E124">
         <v>1</v>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="312">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1814,6 +1814,21 @@
   </si>
   <si>
     <t>电吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+伤害类型:纯粹
+无视技能免疫:是
+对16米范围的所有敌方英雄所在地施加法术,1.2秒后造成伤害
+作用范围:2
+伤害:500/1000/1500/2000
+CD:70
+耗蓝:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2183,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4122,6 +4137,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="125" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>187</v>
+      </c>
+      <c r="B125" t="s">
+        <v>310</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -1817,10 +1817,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小祭司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:无目标
 伤害类型:纯粹
 无视技能免疫:是
@@ -1829,6 +1825,10 @@
 伤害:500/1000/1500/2000
 CD:70
 耗蓝:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小祭司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2201,7 +2201,7 @@
   <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4142,13 +4142,13 @@
         <v>187</v>
       </c>
       <c r="B125" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E125">
         <v>1</v>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="314">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -718,16 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:自动释放
-影响:地方单位
-无视技能免疫:否
-箭上附近冰冻攻击效果,减缓敌人的移动速度,持续1.5秒
-减缓速度:16%/32%/48%/64%
-持续时间:1.5
-耗蓝:12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:点目标
 能否驱散:是
 无视技能免疫:否
@@ -761,27 +751,6 @@
 攻击速度速度降低:14%/20%/24%/28%
 CD:40/34/28/22
 耗蓝:75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:被动
-无视技能免疫:是
-能否驱散:仅强驱散
-攻击有一定概率对敌人造成2倍伤害。并锁定敌人。
-锁定持续时间:0.75
-触发概率:10%/14%/18%/22%
-额外伤害:23/30/35/40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:点目标
-无视技能免疫:是
-能否驱散:无法驱散
-创造一个圆形遮罩,将里面的所有单位定住,自己在里面来去自如,且能穿透敌人
-左右范围:4.25
-持续时间:4/4.5/5
-CD:140/130/120
-耗蓝:150/225/300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -795,15 +764,6 @@
 眩晕时间:1.75/2.15/2.55/2.95
 CD:13/12/11/10
 耗蓝:110/120/130/140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:被动
-伤害类型:物理
-是否无视技能免疫:是
-攻击有概率无视敌人的护甲,如果4米内有敌方英雄,则无效。
-触发概率:20%/30%/40%
-额外伤害:120/130/140</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -992,27 +952,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:无目标
-伤害类型:物理
-无视技能免疫:是
-激活范围攻击状态
-攻击次数:5
-额外伤害:10%/20%/30%/40%
-攻击距离:3.5
-溅射伤害:30%/40%/50%/60%
-CD:25/20/15/10
-耗蓝:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:被动
-激活长大状态
-护甲加成:10/18/26
-攻击力加成:30/45/60
-攻击速度降低:20/35/50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:点目标
 无视技能免疫:否
 伤害类型:魔法
@@ -1124,20 +1063,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:无目标
-无视技能免疫:否
-伤害类型:魔法
-能否驱散:是
-发射出18到波纹,每道波纹都可以对敌人造成伤害。
-施法延迟:1.67
-移动速度降低:25%
-攻击力降低:50%
-伤害:80/120/160
-CD:120/110/100
-耗蓝:150/175/200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:点目标
 无视技能免疫:是
 伤害类型:魔法
@@ -1147,15 +1072,6 @@
 持续时间:7
 CD:16
 耗蓝:100/120/140/160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:被动
-无视技能免疫:是
-伤害类型:纯粹
-当敌人落单时,将造成额外伤害
-额外伤害:20/30/40/50
-落单范围:5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1202,18 +1118,6 @@
 射程增加:1/2/3/4
 CD:9/8/7/6
 耗蓝:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:单位目标
-伤害类型:魔法
-能否驱散:无法驱散
-短暂延迟后,对敌人造成巨大伤害
-施法距离:20
-作用范围:4.5
-伤害:320/485/650
-CD:20/15/10
-耗蓝:175/225/275</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1723,18 +1627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:无目标
-无视技能免疫:是
-在敌人身后创造一个幻象
-幻象持续时间:5/6/7
-继承攻击力:60%/80%/100%
-移动速度加成:200%
-承受伤害:200%
-CD:180/150/120
-耗蓝:150/200/250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剑刃风暴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1747,20 +1639,6 @@
 最大叠加层数:30
 持续时间:8/12/16/20
 每次攻击叠加伤害:7/14/21/28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:单位目标
-影响:地方单位
-伤害类型:物理
-无视技能免疫:是
-挥剑斩向敌人,随后以更短的攻击频率斩击附近的敌人,斩击期间无敌
-斩击频率倍数:1.7
-作用范围:4.25
-攻击力加成:30/40/50
-持续时间:3/3.25/3.5
-CD:140
-耗蓝:200/275/350</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1817,6 +1695,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪烁快击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>技能:无目标
 伤害类型:纯粹
 无视技能免疫:是
@@ -1828,7 +1714,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小祭司</t>
+    <t>技能:单位目标
+影响:地方单位
+伤害类型:物理
+无视技能免疫:是
+挥剑斩向敌人,随后以更短的攻击频率斩击附近的敌人,斩击期间无敌
+斩击频率倍数:1.7
+作用范围:4.25
+攻击力加成:30/40/50
+持续时间:3/3.25/3.5
+CD:80
+耗蓝:200/275/350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+闪烁到一个敌方单位身边，并获得攻击速度加成。
+作用范围:12
+攻速提升：100/125/150/175
+CD:11/10/9/8
+耗蓝:35/40/45/50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+伤害类型:魔法
+能否驱散:无法驱散
+短暂延迟后,对敌人造成巨大伤害并眩晕
+施法距离:20
+眩晕时间:1.5
+伤害:320/485/650
+CD:20/15/10
+耗蓝:175/225/275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+激活长大状态
+护甲加成:10/18/26
+攻击力加成:60/90/120
+攻击速度增加:20/35/50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+伤害类型:物理
+无视技能免疫:是
+激活范围攻击状态
+攻击次数:5/6/7/8
+额外伤害:10%/20%/30%/40%
+攻击距离:3.5
+溅射伤害:30%/40%/50%/60%
+CD:25/20/15/10
+耗蓝:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:是
+伤害类型:纯粹
+当敌人落单时,将造成额外伤害
+额外伤害:30/40/50/60
+落单范围:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:否
+伤害类型:魔法
+能否驱散:是
+发射出18到波纹,每道波纹都可以对敌人造成伤害。
+施法延迟:1.67
+移动速度降低:25%
+攻击力降低:50%
+伤害:80/120/160
+CD:60/50/40
+耗蓝:150/175/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:是
+能否驱散:仅强驱散
+攻击有一定概率对敌人造成2倍伤害。并锁定敌人。
+锁定持续时间:0.75
+触发概率:10%/14%/18%/22%
+额外伤害:50/65/80/95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+伤害类型:物理
+是否无视技能免疫:是
+攻击有概率无视敌人的护甲,如果5米内有敌方英雄,则无效。
+触发概率:20%/30%/40%
+额外伤害:70/80/90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:自动释放
+影响:地方单位
+无视技能免疫:否
+箭上附近冰冻攻击效果,减缓敌人的移动速度,持续1.5秒
+减缓速度:16%/32%/48%/64%
+持续时间:1.5
+耗蓝:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:点目标
+无视技能免疫:是
+能否驱散:无法驱散
+创造一个圆形遮罩,将里面的所有单位定住,自己在里面来去自如,且能穿透敌人
+左右范围:4.25
+持续时间:4/4.5/5
+CD:80/70/60
+耗蓝:150/225/300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:是
+在敌人身后创造一个幻象
+幻象持续时间:5/6/7
+继承攻击力:60%/80%/100%
+移动速度加成:200%
+承受伤害:200%
+CD:60
+耗蓝:150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2198,10 +2211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2225,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2281,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2298,13 +2311,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2315,7 +2328,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -2332,13 +2345,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2349,13 +2362,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2366,13 +2379,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2383,13 +2396,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2400,13 +2413,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2417,13 +2430,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2434,13 +2447,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2451,13 +2464,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2468,13 +2481,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2485,13 +2498,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2502,13 +2515,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2519,13 +2532,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2536,13 +2549,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2553,13 +2566,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2570,13 +2583,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2587,13 +2600,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2604,13 +2617,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2621,13 +2634,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2638,13 +2651,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2655,13 +2668,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2672,13 +2685,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2689,13 +2702,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2706,13 +2719,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2723,13 +2736,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2740,13 +2753,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2757,13 +2770,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2774,13 +2787,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2791,13 +2804,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C36" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2808,13 +2821,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2825,13 +2838,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2842,13 +2855,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -2865,7 +2878,7 @@
         <v>50</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2876,13 +2889,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2893,13 +2906,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -2910,13 +2923,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2927,13 +2940,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2944,13 +2957,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2961,13 +2974,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2978,13 +2991,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2995,13 +3008,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -3012,13 +3025,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3029,13 +3042,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3052,7 +3065,7 @@
         <v>62</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3063,13 +3076,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3080,13 +3093,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3097,13 +3110,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C54" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3114,13 +3127,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C55" t="s">
         <v>66</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3131,13 +3144,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C56" t="s">
         <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -3148,13 +3161,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3165,13 +3178,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C58" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3182,13 +3195,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C59" t="s">
         <v>70</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3199,13 +3212,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C60" t="s">
         <v>71</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3216,13 +3229,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3233,13 +3246,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3250,13 +3263,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C63" t="s">
         <v>74</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3267,13 +3280,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3284,13 +3297,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C65" t="s">
         <v>76</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3301,13 +3314,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C66" t="s">
         <v>77</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3318,13 +3331,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C67" t="s">
         <v>78</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3335,13 +3348,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C68" t="s">
         <v>79</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3352,13 +3365,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C69" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -3369,13 +3382,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C70" t="s">
         <v>81</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3386,13 +3399,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C71" t="s">
         <v>82</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3403,13 +3416,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C72" t="s">
         <v>83</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3420,13 +3433,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C73" t="s">
         <v>84</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3437,13 +3450,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3454,13 +3467,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s">
         <v>86</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4094,10 +4107,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C122" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4108,13 +4121,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4125,13 +4138,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C124" t="s">
         <v>60</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -4142,15 +4155,32 @@
         <v>187</v>
       </c>
       <c r="B125" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>193</v>
+      </c>
+      <c r="B126" t="s">
+        <v>300</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E126">
         <v>1</v>
       </c>
     </row>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -802,19 +802,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:无目标
-伤害类型:魔法
-是否无视技能免疫:否
-能否驱散:是
-对附近的所有单位造成伤害并减速
-作用范围:3.85
-移动速度减缓:25%/35%/45%/55%
-伤害:50/100/150/200
-CD:5
-耗蓝:75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/熊战士的攻击速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1842,6 +1829,19 @@
 承受伤害:200%
 CD:60
 耗蓝:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+伤害类型:魔法
+是否无视技能免疫:否
+能否驱散:是
+闪烁到指定方向前4米的位置,并对附近的所有单位造成伤害并减速
+作用范围:3.85
+移动速度减缓:25%/35%/45%/55%
+伤害:50/100/150/200
+CD:9
+耗蓝:75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2213,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2238,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2294,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2311,13 +2311,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -2345,13 +2345,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2379,7 +2379,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -2396,13 +2396,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2413,13 +2413,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2430,7 +2430,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
         <v>164</v>
@@ -2447,7 +2447,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -2464,13 +2464,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2481,13 +2481,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2498,7 +2498,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -2515,7 +2515,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -2532,7 +2532,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -2549,7 +2549,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
@@ -2561,18 +2561,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2583,13 +2583,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2600,13 +2600,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2617,13 +2617,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2634,13 +2634,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2651,13 +2651,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2668,13 +2668,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2685,13 +2685,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2702,13 +2702,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2719,13 +2719,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2736,13 +2736,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2753,13 +2753,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2770,13 +2770,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2787,13 +2787,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2804,13 +2804,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C36" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2821,13 +2821,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2838,13 +2838,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2855,13 +2855,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -2878,7 +2878,7 @@
         <v>50</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2889,13 +2889,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2906,13 +2906,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -2923,13 +2923,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2940,13 +2940,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2957,13 +2957,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2974,13 +2974,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2991,13 +2991,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -3008,13 +3008,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -3025,13 +3025,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3042,13 +3042,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>62</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3076,13 +3076,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3093,13 +3093,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3110,13 +3110,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C54" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3127,13 +3127,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C55" t="s">
         <v>66</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3144,13 +3144,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C56" t="s">
         <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -3161,13 +3161,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3178,13 +3178,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C58" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3195,13 +3195,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C59" t="s">
         <v>70</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3212,13 +3212,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C60" t="s">
         <v>71</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3229,13 +3229,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3246,13 +3246,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3263,13 +3263,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C63" t="s">
         <v>74</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3280,13 +3280,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3297,13 +3297,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C65" t="s">
         <v>76</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3314,13 +3314,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C66" t="s">
         <v>77</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3331,13 +3331,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C67" t="s">
         <v>78</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3348,13 +3348,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C68" t="s">
         <v>79</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3365,13 +3365,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -3382,13 +3382,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C70" t="s">
         <v>81</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3399,13 +3399,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C71" t="s">
         <v>82</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3416,13 +3416,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C72" t="s">
         <v>83</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3433,13 +3433,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C73" t="s">
         <v>84</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3450,13 +3450,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3467,13 +3467,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C75" t="s">
         <v>86</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4107,10 +4107,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C122" t="s">
         <v>277</v>
-      </c>
-      <c r="C122" t="s">
-        <v>278</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4121,13 +4121,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4138,13 +4138,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C124" t="s">
         <v>60</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -4155,13 +4155,13 @@
         <v>187</v>
       </c>
       <c r="B125" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -4172,13 +4172,13 @@
         <v>193</v>
       </c>
       <c r="B126" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E126">
         <v>1</v>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -696,21 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:无目标
-伤害类型:魔法
-无视技能免疫:否
-能否被驱散:否
-对周围的敌方单位造成伤害,并使自己魔法免疫。
-驱散类型:弱
-期间可以使用物品,但是不能攻击
-作用范围:2.5
-伤害:90/115/140/160
-持续时间:5
-CD:42/34/26/18
-耗蓝:120/110/100/90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:被动
 攻击时有一定概率触发致命一击
 触发概率:20%/25%/30%/35%
@@ -1089,16 +1074,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:被动
-无视技能免疫:否
-伤害类型:物理
-攻击时造成额外伤害和短暂的移动停滞
-概率:40%
-击退距离:10
-伤害:30/60/90/120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:无目标
 能否驱散:是
 增加射程,开启后下一次增加的射程加倍
@@ -1120,20 +1095,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:单位目标
-无视技能免疫:否
-能否驱散:是
-伤害类型:魔法
-激怒一个敌方单位,使其持续受到伤害和减速,直到他杀死一个单位或者持续时间结束，自己获得移动速度加成
-持续时间:12
-移动速度减缓:12%
-移动速度加成:12%
-每秒伤害:16/24/32/40
-CD:20/15/10/5
-耗蓝:50/60/70/80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:被动
 无视技能免疫:是
 伤害类型:纯粹
@@ -1142,21 +1103,6 @@
 作用范围:2.75
 概率:20%
 CD:0.45/0.4/0.35/0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:单位目标
-无视技能免疫:是
-伤害类型:魔法
-直接秒杀血量低的单位,血量如果过高,则造成一定伤害,成功斩杀后将重置CD,并提供友方移动速度
-秒杀血量:250/325/400
-伤害:150/250/300
-斩杀后移动速度加成:30%
-斩杀后攻击速度加成:30
-持续时间:6
-斩杀后加速范围:9
-CD:75/60/55
-耗蓝:60/120/180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1172,22 +1118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:被动
-无视技能免疫:是
-使自己的攻击可以弹射,每次弹射后都将降低伤害
-弹射范围:5
-弹射次数:1/2/3/6
-弹射伤害衰减:35%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:被动
-提升友方单位的主属性
-范围:12
-主属性加成:6/12/18/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:无目标
 无视技能免疫:否
 能否驱散:无法驱散
@@ -1200,20 +1130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:自动释放
-无视技能免疫:否
-能否驱散:是
-伤害类型:魔法
-攻击可以降低目标的攻击速度和移动速度,并根据目标损失的血量造成伤害
-持续时间:3
-伤害掉血百分比:0.25/0.5/0.75/1
-移动速度降低:10%/20%/30%/40%
-攻击速度降低:10/20/30/40
-CD:0.1
-耗蓝:40/35/30/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:点目标
 无视技能免疫:否
 伤害类型:魔法
@@ -1222,43 +1138,6 @@
 作用范围:3.8
 魔抗降低:10%/15%/20%/25%
 CD:6
-耗蓝:70/80/90/100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:被动
-无视技能免疫:否
-伤害类型:魔法
-能否驱散:是
-任何伤害到我的敌人都将受到伤害和降低攻击速度,还能提升我自己的魔法抗性
-持续时间:4
-攻击速度降低:8/16/24/32
-魔抗增加:10%/15%/20%/25%
-每秒伤害:8/16/24/32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:单位目标
-无视技能免疫:是
-伤害类型:魔法
-能否驱散:无法驱散
-降低目标敌方单位的移动和攻击速度,并造成持续伤害,移动速度会在持续时间内逐渐恢复
-持续时间:5
-每秒造成伤害:60/100/145
-移动速度减缓:40%/60%/80%
-攻击速度降低:40/60/80
-CD:50/40/30
-耗蓝:125/175/250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:无目标
-无视技能免疫:否
-伤害类型:魔法
-制造一个可以爆炸的能量球,如果有人接近就会爆炸
-作用范围:2.6
-伤害:120/175/230/285
-CD:3.5
 耗蓝:70/80/90/100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1690,17 +1569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:无目标
-伤害类型:纯粹
-无视技能免疫:是
-对16米范围的所有敌方英雄所在地施加法术,1.2秒后造成伤害
-作用范围:2
-伤害:500/1000/1500/2000
-CD:70
-耗蓝:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:单位目标
 影响:地方单位
 伤害类型:物理
@@ -1736,14 +1604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:被动
-激活长大状态
-护甲加成:10/18/26
-攻击力加成:60/90/120
-攻击速度增加:20/35/50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:无目标
 伤害类型:物理
 无视技能免疫:是
@@ -1759,29 +1619,6 @@
   <si>
     <t>技能:被动
 无视技能免疫:是
-伤害类型:纯粹
-当敌人落单时,将造成额外伤害
-额外伤害:30/40/50/60
-落单范围:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:无目标
-无视技能免疫:否
-伤害类型:魔法
-能否驱散:是
-发射出18到波纹,每道波纹都可以对敌人造成伤害。
-施法延迟:1.67
-移动速度降低:25%
-攻击力降低:50%
-伤害:80/120/160
-CD:60/50/40
-耗蓝:150/175/200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:被动
-无视技能免疫:是
 能否驱散:仅强驱散
 攻击有一定概率对敌人造成2倍伤害。并锁定敌人。
 锁定持续时间:0.75
@@ -1842,6 +1679,173 @@
 伤害:50/100/150/200
 CD:9
 耗蓝:75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:自动释放
+无视技能免疫:否
+能否驱散:是
+伤害类型:魔法
+攻击可以降低目标的攻击速度,并造成持续伤害,可叠加
+持续时间:4/6/8/10
+伤害:10/20/30/40
+攻击速度降低:10
+CD:0.1
+耗蓝:20/15/10/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+无视技能免疫:是
+伤害类型:魔法
+能否驱散:无法驱散
+降低目标敌方单位的移动和攻击速度,并造成持续伤害,移动速度会在持续时间内逐渐恢复
+持续时间:5
+每秒造成伤害:60/100/145
+移动速度减缓:40%/60%/80%
+攻击速度降低:40/60/80
+CD:50/40/30
+耗蓝:125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:否
+伤害类型:魔法
+能否驱散:是
+任何伤害到我的敌人都将受到伤害和降低攻击速度,还能提升我自己的护甲
+持续时间:4
+攻击速度降低:8/16/24/32
+护甲增加:3/4/5/6
+护甲可叠加
+每秒伤害:8/16/24/32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+激活长大状态
+护甲加成:10/18/26
+攻击力加成:60/90/120
+攻击速度增加:50/100/150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:是
+伤害类型:纯粹
+当敌人落单时,将造成额外伤害
+额外伤害:50/70/90/110
+落单范围:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:否
+伤害类型:魔法
+能否驱散:是
+发射出18到波纹,每道波纹都可以对敌人造成伤害。
+施法延迟:1.67
+移动速度降低:25%
+攻击力降低:50%
+护甲降低:7/10/13
+伤害:80/120/160
+CD:60/50/40
+耗蓝:150/175/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+无视技能免疫:否
+能否驱散:是
+伤害类型:魔法
+激怒一个敌方单位,使其持续受到伤害和减速,直到他杀死一个单位或者持续时间结束，自己获得移动速度加成
+持续时间:30
+移动速度减缓:12%
+降低护甲:3/5/7/9
+移动速度加成:12%
+每秒伤害:16/24/32/40
+CD:20/15/10/5
+耗蓝:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:是
+使自己的攻击可以弹射,每次弹射后都将降低伤害
+弹射范围:5
+弹射次数:1/2/3/6
+弹射伤害衰减:35%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+提升友方单位的主属性,物理吸血,魔法吸血
+范围:12
+主属性加成:6/12/18/24
+物理吸血:10%/15%/20%/25%
+魔法吸血:20%/25%/30%/35%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:单位目标
+无视技能免疫:是
+伤害类型:魔法
+直接秒杀血量低的单位,血量如果过高,则造成一定伤害,成功斩杀后将重置CD,并提供友方移动速度
+秒杀血量:250/325/800
+伤害:150/250/300
+斩杀后移动速度加成:30%
+斩杀后攻击速度加成:30
+持续时间:6
+斩杀后加速范围:9
+CD:75/60/55
+耗蓝:60/120/180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+伤害类型:魔法
+无视技能免疫:否
+能否被驱散:否
+对周围的敌方单位造成伤害,并使自己魔法免疫。
+驱散类型:弱
+作用范围:2.5
+伤害:90/115/140/160
+持续时间:5
+CD:42/34/26/18
+耗蓝:120/110/100/90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:否
+伤害类型:魔法
+攻击时造成额外伤害和短暂的移动停滞
+概率:40%
+击退距离:10
+伤害:30/60/90/120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+伤害类型:魔法
+无视技能免疫:是
+对16米范围的所有敌方英雄所在地施加法术,2.4秒后造成伤害
+作用范围:2
+伤害:500/1000/1500/2000
+CD:40
+耗蓝:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:否
+伤害类型:魔法
+制造一个可以爆炸的能量球,如果有人接近就会爆炸.并且给自己增加攻击速度持续30秒,可叠加。
+作用范围:2.6
+伤害:120/175/230/285
+攻击速度:10/20/30/40
+CD:3.5
+耗蓝:70/80/90/100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2213,14 +2217,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2238,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2289,18 +2293,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2311,13 +2315,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2328,13 +2332,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2345,13 +2349,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2362,13 +2366,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2379,13 +2383,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2396,13 +2400,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2413,13 +2417,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2430,13 +2434,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2447,13 +2451,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2464,13 +2468,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2481,13 +2485,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2498,13 +2502,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2515,13 +2519,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2532,13 +2536,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2549,13 +2553,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2566,13 +2570,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2583,13 +2587,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2600,13 +2604,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2617,13 +2621,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2634,13 +2638,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2651,13 +2655,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2668,13 +2672,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2685,13 +2689,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2702,13 +2706,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2719,13 +2723,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2736,13 +2740,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2753,13 +2757,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2770,13 +2774,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2787,13 +2791,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2804,13 +2808,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C36" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2821,13 +2825,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2838,13 +2842,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2855,13 +2859,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -2878,7 +2882,7 @@
         <v>50</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2889,13 +2893,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2906,13 +2910,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -2923,13 +2927,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2940,13 +2944,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2957,13 +2961,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2974,13 +2978,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2991,13 +2995,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -3008,13 +3012,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -3025,30 +3029,30 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3065,7 +3069,7 @@
         <v>62</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3076,13 +3080,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3093,13 +3097,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3110,13 +3114,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3127,13 +3131,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C55" t="s">
         <v>66</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3144,13 +3148,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C56" t="s">
         <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -3161,13 +3165,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3178,13 +3182,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C58" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3195,13 +3199,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C59" t="s">
         <v>70</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3212,30 +3216,30 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C60" t="s">
         <v>71</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3246,13 +3250,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3263,13 +3267,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C63" t="s">
         <v>74</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3280,13 +3284,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3297,30 +3301,30 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C65" t="s">
         <v>76</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>206</v>
+        <v>307</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C66" t="s">
         <v>77</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>207</v>
+        <v>308</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3331,30 +3335,30 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C67" t="s">
         <v>78</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C68" t="s">
         <v>79</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3365,30 +3369,30 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C69" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E69">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C70" t="s">
         <v>81</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>211</v>
+        <v>302</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3399,30 +3403,30 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C71" t="s">
         <v>82</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>212</v>
+        <v>301</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C72" t="s">
         <v>83</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>213</v>
+        <v>313</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3433,13 +3437,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s">
         <v>84</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3450,13 +3454,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3467,13 +3471,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C75" t="s">
         <v>86</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4107,10 +4111,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C122" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4121,13 +4125,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4138,13 +4142,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C124" t="s">
         <v>60</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -4155,13 +4159,13 @@
         <v>187</v>
       </c>
       <c r="B125" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -4172,13 +4176,13 @@
         <v>193</v>
       </c>
       <c r="B126" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E126">
         <v>1</v>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="317">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,10 +201,6 @@
   </si>
   <si>
     <t>ui://GameUI/血魔祭司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/血魔焦渴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1846,6 +1842,26 @@
 攻击速度:10/20/30/40
 CD:3.5
 耗蓝:70/80/90/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/血魔焦渴</t>
+  </si>
+  <si>
+    <t>ui://GameUI/血魔焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视节能免疫:是
+当持续攻击同一个目标时，他会攻击得越来越快。如果改变目标或者持续时间内未攻击目标，则额外的攻速加成清零
+持续时间:10
+每层效果攻速加成：15/20/25/30
+最大叠加层数：12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战魂快击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2215,16 +2231,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2242,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2298,13 +2314,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2315,13 +2331,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2332,13 +2348,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2349,13 +2365,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2366,13 +2382,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2383,13 +2399,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2400,13 +2416,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2417,13 +2433,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2434,13 +2450,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2451,13 +2467,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2468,13 +2484,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2485,13 +2501,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2502,13 +2518,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2519,13 +2535,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2536,13 +2552,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2553,13 +2569,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2570,13 +2586,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2587,13 +2603,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2604,13 +2620,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2621,13 +2637,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2638,13 +2654,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2655,13 +2671,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2672,13 +2688,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2689,13 +2705,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2706,13 +2722,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2723,13 +2739,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2740,13 +2756,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2757,13 +2773,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2774,13 +2790,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2791,13 +2807,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2808,13 +2824,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2825,13 +2841,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2842,13 +2858,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2859,13 +2875,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -2876,13 +2892,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
-        <v>50</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2893,13 +2909,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2910,13 +2926,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -2927,13 +2943,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2944,13 +2960,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2961,13 +2977,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2978,13 +2994,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2995,13 +3011,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -3012,13 +3028,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -3029,13 +3045,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3046,13 +3062,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3063,13 +3079,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
         <v>61</v>
       </c>
-      <c r="C51" t="s">
-        <v>62</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3080,13 +3096,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3097,13 +3113,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3114,13 +3130,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3131,13 +3147,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3148,13 +3164,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -3165,13 +3181,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3182,13 +3198,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3199,13 +3215,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3216,13 +3232,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3233,13 +3249,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3250,13 +3266,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3267,13 +3283,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3284,13 +3300,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3301,13 +3317,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3318,13 +3334,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3335,13 +3351,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3352,13 +3368,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3369,13 +3385,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -3386,13 +3402,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3403,13 +3419,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3420,13 +3436,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3437,13 +3453,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3454,13 +3470,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3471,13 +3487,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -3593,10 +3609,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3607,10 +3623,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3621,10 +3637,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3635,10 +3651,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3649,10 +3665,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3663,10 +3679,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3677,10 +3693,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3691,10 +3707,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3705,10 +3721,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -3719,10 +3735,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3733,10 +3749,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3747,10 +3763,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3761,10 +3777,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3775,10 +3791,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3789,10 +3805,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3803,10 +3819,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3817,10 +3833,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3831,10 +3847,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3845,10 +3861,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3859,10 +3875,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3873,10 +3889,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3887,10 +3903,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3901,10 +3917,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3915,10 +3931,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -3929,10 +3945,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3943,10 +3959,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3957,10 +3973,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3971,10 +3987,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3985,10 +4001,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -3999,10 +4015,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -4013,10 +4029,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -4027,10 +4043,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -4041,10 +4057,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -4055,10 +4071,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -4069,10 +4085,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -4083,10 +4099,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -4097,10 +4113,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -4111,10 +4127,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C122" t="s">
         <v>266</v>
-      </c>
-      <c r="C122" t="s">
-        <v>267</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4125,13 +4141,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4142,13 +4158,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>269</v>
+      </c>
+      <c r="C124" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C124" t="s">
-        <v>60</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -4159,13 +4175,13 @@
         <v>187</v>
       </c>
       <c r="B125" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -4176,15 +4192,32 @@
         <v>193</v>
       </c>
       <c r="B126" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>196</v>
+      </c>
+      <c r="B127" t="s">
+        <v>316</v>
+      </c>
+      <c r="C127" t="s">
+        <v>313</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E127">
         <v>1</v>
       </c>
     </row>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -1678,19 +1678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能:自动释放
-无视技能免疫:否
-能否驱散:是
-伤害类型:魔法
-攻击可以降低目标的攻击速度,并造成持续伤害,可叠加
-持续时间:4/6/8/10
-伤害:10/20/30/40
-攻击速度降低:10
-CD:0.1
-耗蓝:20/15/10/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能:单位目标
 无视技能免疫:是
 伤害类型:魔法
@@ -1702,19 +1689,6 @@
 攻击速度降低:40/60/80
 CD:50/40/30
 耗蓝:125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:被动
-无视技能免疫:否
-伤害类型:魔法
-能否驱散:是
-任何伤害到我的敌人都将受到伤害和降低攻击速度,还能提升我自己的护甲
-持续时间:4
-攻击速度降低:8/16/24/32
-护甲增加:3/4/5/6
-护甲可叠加
-每秒伤害:8/16/24/32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1862,6 +1836,32 @@
   </si>
   <si>
     <t>战魂快击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:自动释放
+无视技能免疫:否
+能否驱散:是
+伤害类型:魔法
+攻击可以降低目标的攻击速度,并造成持续伤害,可叠加
+持续时间:4/5/6/7
+伤害:10/20/30/40
+攻击速度降低:10
+CD:0.1
+耗蓝:20/15/10/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:否
+伤害类型:魔法
+能否驱散:是
+任何伤害到我的敌人都将受到伤害和降低攻击速度,还能提升我自己的护甲
+持续时间:4
+攻击速度降低:8/16/24/32
+持续时间:12
+护甲增加:1/1.3/1.6/2
+护甲可叠加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2233,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2320,7 +2320,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2691,7 +2691,7 @@
         <v>224</v>
       </c>
       <c r="C28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>175</v>
@@ -2847,7 +2847,7 @@
         <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3068,7 +3068,7 @@
         <v>59</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3102,7 +3102,7 @@
         <v>62</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3187,7 +3187,7 @@
         <v>67</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3255,7 +3255,7 @@
         <v>71</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>73</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3323,7 +3323,7 @@
         <v>75</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3340,7 +3340,7 @@
         <v>76</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3374,7 +3374,7 @@
         <v>78</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3408,7 +3408,7 @@
         <v>80</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3425,7 +3425,7 @@
         <v>81</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3442,7 +3442,7 @@
         <v>82</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4181,7 +4181,7 @@
         <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -4209,13 +4209,13 @@
         <v>196</v>
       </c>
       <c r="B127" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C127" t="s">
+        <v>311</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="E127">
         <v>1</v>

--- a/Excel/client_skill.xlsx
+++ b/Excel/client_skill.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="319">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1654,18 +1654,6 @@
   </si>
   <si>
     <t>技能:无目标
-无视技能免疫:是
-在敌人身后创造一个幻象
-幻象持续时间:5/6/7
-继承攻击力:60%/80%/100%
-移动速度加成:200%
-承受伤害:200%
-CD:60
-耗蓝:150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能:无目标
 伤害类型:魔法
 是否无视技能免疫:否
 能否驱散:是
@@ -1862,6 +1850,32 @@
 持续时间:12
 护甲增加:1/1.3/1.6/2
 护甲可叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:无目标
+无视技能免疫:是
+在敌人身后创造一个幻象
+幻象持续时间:5/6/7
+继承攻击力:60%/80%/100%
+移动速度加成:200%
+承受伤害:200%
+CD:60
+耗蓝:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能:被动
+无视技能免疫:是
+攻击敌人时在敌人周围创造一个幻象,此幻象不能移动但可以攻击他身边的单位。
+幻象持续时间:10
+幻象攻击距离:+2
+继承攻击力:60%/80%/100%
+CD:8/6.5/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2231,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="M133" sqref="M133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2320,7 +2334,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2592,7 +2606,7 @@
         <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2691,7 +2705,7 @@
         <v>224</v>
       </c>
       <c r="C28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>175</v>
@@ -2847,7 +2861,7 @@
         <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3068,7 +3082,7 @@
         <v>59</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3102,7 +3116,7 @@
         <v>62</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3136,7 +3150,7 @@
         <v>64</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3187,7 +3201,7 @@
         <v>67</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3255,7 +3269,7 @@
         <v>71</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3289,7 +3303,7 @@
         <v>73</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3323,7 +3337,7 @@
         <v>75</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3340,7 +3354,7 @@
         <v>76</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3374,7 +3388,7 @@
         <v>78</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3408,7 +3422,7 @@
         <v>80</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3425,7 +3439,7 @@
         <v>81</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3442,7 +3456,7 @@
         <v>82</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4181,7 +4195,7 @@
         <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -4209,15 +4223,32 @@
         <v>196</v>
       </c>
       <c r="B127" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C127" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>197</v>
+      </c>
+      <c r="B128" t="s">
+        <v>316</v>
+      </c>
+      <c r="C128" t="s">
+        <v>64</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E128">
         <v>1</v>
       </c>
     </row>
